--- a/data/trans_orig/IP38E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E1EEF0-6842-4B85-BEA8-F32EBB9B8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4297EB-3A60-40A9-9B2C-1FF0184BFC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{068B8734-5A01-4F1D-8D82-87C80394D371}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B7F257-937C-42F7-9622-96411EC12C05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,103 +104,103 @@
     <t>36,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>69,85%</t>
+    <t>69,62%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>30,38%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>79,63%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>65,11%</t>
+    <t>70,46%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>34,89%</t>
+    <t>29,54%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,85%</t>
@@ -215,7 +215,7 @@
     <t>75,15%</t>
   </si>
   <si>
-    <t>28,02%</t>
+    <t>21,65%</t>
   </si>
   <si>
     <t>12,15%</t>
@@ -230,7 +230,7 @@
     <t>24,85%</t>
   </si>
   <si>
-    <t>71,98%</t>
+    <t>78,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -239,91 +239,91 @@
     <t>77,58%</t>
   </si>
   <si>
-    <t>33,2%</t>
+    <t>31,8%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>63,39%</t>
+    <t>57,61%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>53,8%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>66,8%</t>
+    <t>68,2%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>36,61%</t>
+    <t>42,39%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>46,2%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>80,57%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61582D2C-23DD-4818-ABF9-70CB3E2F6FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F830A4-F01E-453B-B559-0E23A493DC75}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP38E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4297EB-3A60-40A9-9B2C-1FF0184BFC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89A6EA8-CAD4-43D0-A9C7-899A07FDD160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B7F257-937C-42F7-9622-96411EC12C05}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B0D23B-4506-4675-84B2-7545237D5B14}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
-  <si>
-    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 4,74%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+  <si>
+    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 31,3%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,265 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -738,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F830A4-F01E-453B-B559-0E23A493DC75}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DEF117-4FEF-4C97-864D-A6A2086CF9EB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -856,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>514</v>
+        <v>34870</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -871,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>471</v>
+        <v>41964</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -883,73 +913,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7">
-        <v>986</v>
+        <v>76834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>573</v>
+        <v>2465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>573</v>
+        <v>6795</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -958,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7">
-        <v>514</v>
+        <v>39200</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="I6" s="7">
-        <v>1044</v>
+        <v>44429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="N6" s="7">
-        <v>1559</v>
+        <v>83629</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>8809</v>
+        <v>54978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>2627</v>
+        <v>65590</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>11436</v>
+        <v>120568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>935</v>
+        <v>5312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>1755</v>
+        <v>8969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>2690</v>
+        <v>14281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1113,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>9744</v>
+        <v>60290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7">
-        <v>4382</v>
+        <v>74559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="N9" s="7">
-        <v>14126</v>
+        <v>134849</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>10122</v>
+        <v>37723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>8123</v>
+        <v>51861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>18245</v>
+        <v>89584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>4156</v>
+        <v>10576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>857</v>
+        <v>3766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>5013</v>
+        <v>14342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1268,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>14278</v>
+        <v>48299</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>8980</v>
+        <v>55627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="N12" s="7">
-        <v>23258</v>
+        <v>103926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>2805</v>
+        <v>40675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>785</v>
+        <v>54220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="N13" s="7">
-        <v>3591</v>
+        <v>94895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>388</v>
+        <v>7054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>800</v>
+        <v>9128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>1187</v>
+        <v>16182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>3193</v>
+        <v>47729</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="I15" s="7">
-        <v>1585</v>
+        <v>63348</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>4778</v>
+        <v>111077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>247</v>
       </c>
       <c r="D16" s="7">
-        <v>5499</v>
+        <v>168247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I16" s="7">
-        <v>7625</v>
+        <v>213635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>532</v>
       </c>
       <c r="N16" s="7">
-        <v>13125</v>
+        <v>381882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>1590</v>
+        <v>27272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>749</v>
+        <v>24328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>2338</v>
+        <v>51600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7">
-        <v>7089</v>
+        <v>195519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="I18" s="7">
-        <v>8374</v>
+        <v>237963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>21</v>
+        <v>601</v>
       </c>
       <c r="N18" s="7">
-        <v>15463</v>
+        <v>433482</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>44</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27749</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19632</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="7">
-        <v>76</v>
-      </c>
-      <c r="N19" s="7">
-        <v>47381</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7">
-        <v>7069</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4733</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="7">
-        <v>15</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11802</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>52</v>
-      </c>
-      <c r="D21" s="7">
-        <v>34818</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>39</v>
-      </c>
-      <c r="I21" s="7">
-        <v>24365</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>91</v>
-      </c>
-      <c r="N21" s="7">
-        <v>59183</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>96</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
